--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,380 +434,166 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>주문번호</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>이름</t>
+          <t>출처</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>수신자</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>주소</t>
+          <t>상품명(수량)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>주문내역</t>
+          <t>수령희망일</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4593488</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>임창정</t>
+          <t>네이버페이</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01019249188</t>
+          <t>이지예</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>경기 양주시 평화로 1713</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키, 타르트 샘플러 13 </t>
-        </is>
-      </c>
+          <t>숙녀처럼 (1)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>3092137</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김창렬</t>
+          <t>메이크샵</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01078680253</t>
+          <t>황수연</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전남 여수시 좌수영로 277</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">반반 쿠키 13 사워 크림 바나나 브래드 16 </t>
-        </is>
-      </c>
+          <t>반반 쿠키세인트 농 샤블레 + 쇼콜라 바닐라 디아망 (1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>7582477</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>강호동</t>
+          <t>메이크샵</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01010942135</t>
+          <t>임수진(유필선)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>광주 남구 봉선로 198</t>
+          <t>쿠키 백 (25)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">쿠키, 타르트 샘플러 7 점보 오트밀 레이즌 쿠키 9 </t>
+          <t>0902</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>5257966</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이수근</t>
+          <t>메이크샵</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01091285254</t>
+          <t>정지현(유필선)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>서울 은평구 은평로 111</t>
+          <t>쿠키 백 (40)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">크랜베리 초코칩 쿠키 4 </t>
+          <t>0902</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2779219</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서장훈</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01067648661</t>
+          <t>정지원</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울 광진구 아차산로 272 </t>
+          <t>[달콤베이커리] 쿠키 7종 / 수제쿠키 답례품, 답례쿠키 (22)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">쿠키, 타르트 샘플러 1 크랜베리 초코칩 쿠키 7 반반 쿠키 16 크림 치즈 피칸 쿠키 2 </t>
+          <t>0906</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>3398483</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>현주엽</t>
+          <t>메이크샵</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01042935236</t>
+          <t>황수연</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>충남 천안시 서북구 공원로 196</t>
+          <t>쿠키 샘플러 (1)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">크랜베리 초코칩 쿠키 4 크림 치즈 피칸 쿠키 4 사워 크림 바나나 브래드 6 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>8068425</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>안정환</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>01073096063</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>전북 전주시 덕진구 세병서로 9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키 샘플러 9 쿠키, 타르트 샘플러 4 반반 쿠키 6 크림 치즈 피칸 쿠키 7 점보 오트밀 레이즌 쿠키 16 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>6713689</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>박지성</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>01021941978</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>충북 청주시 서원구 청남로 1853</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키 샘플러 3 쿠키, 타르트 샘플러 4 크랜베리 초코칩 쿠키 2 반반 쿠키 14 사워 크림 바나나 브래드 2 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>6187310</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>임요환</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>01013831590</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>대구 북구 침산로 93 스펙트럼시티</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키, 타르트 샘플러 17 반반 쿠키 17 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2823959</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>장재호</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>01059906571</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>경기 용인시 기흥구 동백죽전대로 444 쥬네브썬월드빌딩</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">사워 크림 바나나 브래드 6 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>5829983</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>이제동</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>01070623429</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>충남 서산시 서해로 3685</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키 샘플러 19 반반 쿠키 8 크림 치즈 피칸 쿠키 17 사워 크림 바나나 브래드 2 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>4525660</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>유퉁</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>01013311454</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>경기 화성시 동탄중앙로 376</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키 샘플러 20 크랜베리 초코칩 쿠키 7 크림 치즈 피칸 쿠키 10 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2459254</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>이주노</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>01067000813</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">서울 영등포구 영중로 15 </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">쿠키, 타르트 샘플러 11 크랜베리 초코칩 쿠키 8 반반 쿠키 14 사워 크림 바나나 브래드 16 </t>
+          <t>22090722 ~ 0908</t>
         </is>
       </c>
     </row>
